--- a/biology/Zoologie/Olivér_György_Dely/Olivér_György_Dely.xlsx
+++ b/biology/Zoologie/Olivér_György_Dely/Olivér_György_Dely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oliv%C3%A9r_Gy%C3%B6rgy_Dely</t>
+          <t>Olivér_György_Dely</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivér György Dely est un herpétologiste hongrois né le 27 avril 1927 à Salonta en Roumanie et mort le 19 novembre 2003 à Budapest.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oliv%C3%A9r_Gy%C3%B6rgy_Dely</t>
+          <t>Olivér_György_Dely</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Budapest où il obtient un diplôme de muséologie à l'université des arts de la ville. Il commence à travailler sur les collections d'herpétologie au département de zoologie du Muséum d'histoire naturelle de Hongrie.
 Cette collection est presque entièrement détruite lors des événements de l'Insurrection de Budapest en 1956. 40 000 spécimens conservés dans de l'alcool, y compris les types de Lajos Méhelÿ (1862-1952) sont perdus. Les manuscrits de Dely, dont celui de son doctorat, représentant huit ans de travail, sont également détruits ; il doit tout reprend à zéro.
